--- a/examples/network_colour.xlsx
+++ b/examples/network_colour.xlsx
@@ -20,27 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Vis</t>
   </si>
   <si>
+    <t xml:space="preserve">#781286</t>
+  </si>
+  <si>
     <t xml:space="preserve">SomMot</t>
   </si>
   <si>
+    <t xml:space="preserve">#4682B4</t>
+  </si>
+  <si>
     <t xml:space="preserve">DorsAttn</t>
   </si>
   <si>
+    <t xml:space="preserve">#00760E</t>
+  </si>
+  <si>
     <t xml:space="preserve">SalVentAttn</t>
   </si>
   <si>
+    <t xml:space="preserve">#C43AFA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Limbic</t>
   </si>
   <si>
+    <t xml:space="preserve">#DCF8A4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cont</t>
   </si>
   <si>
+    <t xml:space="preserve">#E69422</t>
+  </si>
+  <si>
     <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CD3E4E</t>
   </si>
 </sst>
 </file>
@@ -138,10 +159,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -162,10 +183,13 @@
       <c r="D1" s="0" t="n">
         <v>134</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>70</v>
@@ -176,10 +200,13 @@
       <c r="D2" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -190,10 +217,13 @@
       <c r="D3" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>196</v>
@@ -204,10 +234,13 @@
       <c r="D4" s="0" t="n">
         <v>250</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>220</v>
@@ -218,10 +251,13 @@
       <c r="D5" s="0" t="n">
         <v>164</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>230</v>
@@ -232,10 +268,13 @@
       <c r="D6" s="0" t="n">
         <v>34</v>
       </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>205</v>
@@ -245,6 +284,9 @@
       </c>
       <c r="D7" s="0" t="n">
         <v>78</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
